--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyscript\SNT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227E65A9-6D4E-49A8-9BA9-9559D367820C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B995900-A6D4-4A1E-900C-2247146E8B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CREATED" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="96">
   <si>
     <t>folder</t>
   </si>
@@ -305,6 +305,22 @@
   </si>
   <si>
     <t>ASN Pending - waiting sailing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +381,167 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="93">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1708,125 +1884,135 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N2" insertRow="1" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
-  <autoFilter ref="A1:N2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="folder" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="bu" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="po" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="lot" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="esd" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="lsd" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="vendor" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="so_number" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="pol" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="pod" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="status" dataDxfId="70"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="criteria" dataDxfId="69"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="fwd_feedback" dataDxfId="68"/>
-    <tableColumn id="14" xr3:uid="{6EA4150F-494D-4452-8391-0C4367B37165}" name="Remark" dataDxfId="67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+  <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="folder" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="bu" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="po" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="lot" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="esd" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="lsd" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="vendor" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="so_number" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="pol" dataDxfId="82"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="pod" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="status" dataDxfId="80"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="criteria" dataDxfId="79"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="fwd_feedback" dataDxfId="78"/>
+    <tableColumn id="14" xr3:uid="{6EA4150F-494D-4452-8391-0C4367B37165}" name="Remark" dataDxfId="77"/>
+    <tableColumn id="15" xr3:uid="{3E734F1F-97FF-4C2E-B262-6AE483E3A4CA}" name="列1" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{0ACE6FC9-8685-4E37-933F-722A75843E6F}" name="列2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:N2" insertRow="1" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="A1:N2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="folder" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="bu" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="po" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="lot" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="esd" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="lsd" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="vendor" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="so_number" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="pol" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="pod" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="status" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="criteria" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="fwd_feedback" dataDxfId="52"/>
-    <tableColumn id="14" xr3:uid="{E34B0057-EF11-49A8-B0DD-66D32F1057A5}" name="Remark" dataDxfId="51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+  <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="folder" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="bu" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="po" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="lot" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="esd" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="lsd" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="vendor" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="so_number" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="pol" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="pod" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="status" dataDxfId="64"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="criteria" dataDxfId="63"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="fwd_feedback" dataDxfId="62"/>
+    <tableColumn id="14" xr3:uid="{E34B0057-EF11-49A8-B0DD-66D32F1057A5}" name="Remark" dataDxfId="61"/>
+    <tableColumn id="15" xr3:uid="{67835B67-A5DA-4888-B002-3042E6687217}" name="列1" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{A9A48327-5828-4587-AEE3-6D800FA84CCB}" name="列2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:N2" insertRow="1" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A1:N2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="folder" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="bu" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="po" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="lot" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="esd" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="lsd" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="vendor" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="so_number" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="pol" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="pod" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="status" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="criteria" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="fwd_feedback" dataDxfId="36"/>
-    <tableColumn id="14" xr3:uid="{D3FCCBD5-6D87-443E-A8EF-0EF862919B31}" name="Remark" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="folder" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="bu" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="po" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="lot" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="esd" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="lsd" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="vendor" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="so_number" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="pol" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="pod" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="status" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="criteria" dataDxfId="47"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="fwd_feedback" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{D3FCCBD5-6D87-443E-A8EF-0EF862919B31}" name="Remark" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{7B824432-2833-4C84-AFBE-1AA4471D453F}" name="列1" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{1153225B-5CF1-4647-99BE-9AB3B9AE5BCD}" name="列2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:M2" insertRow="1" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="folder" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="bu" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="po" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="lot" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="esd" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="lsd" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="vendor" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="so_number" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="pol" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="pod" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="status" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="criteria" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="fwd_feedback" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:O2" insertRow="1" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="folder" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="bu" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="po" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="lot" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="esd" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="lsd" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="vendor" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="so_number" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="pol" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="pod" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="status" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="criteria" dataDxfId="31"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="fwd_feedback" dataDxfId="30"/>
+    <tableColumn id="14" xr3:uid="{69A964DF-7946-491F-A3C9-3971DFCDA2ED}" name="列1" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{E530C425-7ADE-40E9-BA53-BDCBF559B9A5}" name="列2" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A1:M2" insertRow="1" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="folder" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="bu" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="po" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="lot" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="esd" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="lsd" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="vendor" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="so_number" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="pol" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="pod" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="status" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="criteria" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="fwd_feedback" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A1:O2" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="folder" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="bu" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="po" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="lot" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="esd" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="lsd" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="vendor" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="so_number" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="pol" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="pod" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="status" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="criteria" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="fwd_feedback" dataDxfId="15"/>
+    <tableColumn id="14" xr3:uid="{F06942E4-84CA-479D-A8C5-9EA132C3AA81}" name="列1" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{0FAFF703-2744-4001-8B25-1CA7B683E345}" name="列2" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A1:C45" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A1:C45" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:C45" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="State" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Comment" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="State" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Comment" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2120,10 +2306,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2136,7 +2322,7 @@
     <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2179,8 +2365,14 @@
       <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -2212,10 +2404,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2224,7 +2416,7 @@
     <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2267,8 +2459,14 @@
       <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -2300,10 +2498,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2314,7 +2512,7 @@
     <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2357,8 +2555,14 @@
       <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -2390,10 +2594,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2403,7 +2607,7 @@
     <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2443,8 +2647,14 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -2476,19 +2686,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="20.7265625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="14" width="20.7265625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2528,8 +2738,14 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -2550,7 +2766,7 @@
           <x14:formula1>
             <xm:f>'Allowed Comments'!$B$36:$B$44</xm:f>
           </x14:formula1>
-          <xm:sqref>M2</xm:sqref>
+          <xm:sqref>M2:N2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyscript\SNT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B995900-A6D4-4A1E-900C-2247146E8B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B75FB-655D-45F6-852E-1BF2E5B25ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CREATED" sheetId="1" r:id="rId1"/>
@@ -1901,118 +1901,118 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="criteria" dataDxfId="79"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="fwd_feedback" dataDxfId="78"/>
     <tableColumn id="14" xr3:uid="{6EA4150F-494D-4452-8391-0C4367B37165}" name="Remark" dataDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{3E734F1F-97FF-4C2E-B262-6AE483E3A4CA}" name="列1" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{0ACE6FC9-8685-4E37-933F-722A75843E6F}" name="列2" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{3E734F1F-97FF-4C2E-B262-6AE483E3A4CA}" name="列1" dataDxfId="76"/>
+    <tableColumn id="16" xr3:uid="{0ACE6FC9-8685-4E37-933F-722A75843E6F}" name="列2" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="folder" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="bu" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="po" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="lot" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="esd" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="lsd" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="vendor" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="so_number" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="pol" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="pod" dataDxfId="65"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="status" dataDxfId="64"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="criteria" dataDxfId="63"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="fwd_feedback" dataDxfId="62"/>
-    <tableColumn id="14" xr3:uid="{E34B0057-EF11-49A8-B0DD-66D32F1057A5}" name="Remark" dataDxfId="61"/>
-    <tableColumn id="15" xr3:uid="{67835B67-A5DA-4888-B002-3042E6687217}" name="列1" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{A9A48327-5828-4587-AEE3-6D800FA84CCB}" name="列2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="folder" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="bu" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="po" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="lot" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="esd" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="lsd" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="vendor" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="so_number" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="pol" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="pod" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="status" dataDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="criteria" dataDxfId="61"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="fwd_feedback" dataDxfId="60"/>
+    <tableColumn id="14" xr3:uid="{E34B0057-EF11-49A8-B0DD-66D32F1057A5}" name="Remark" dataDxfId="59"/>
+    <tableColumn id="15" xr3:uid="{67835B67-A5DA-4888-B002-3042E6687217}" name="列1" dataDxfId="58"/>
+    <tableColumn id="16" xr3:uid="{A9A48327-5828-4587-AEE3-6D800FA84CCB}" name="列2" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="folder" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="bu" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="po" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="lot" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="esd" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="lsd" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="vendor" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="so_number" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="pol" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="pod" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="status" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="criteria" dataDxfId="47"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="fwd_feedback" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{D3FCCBD5-6D87-443E-A8EF-0EF862919B31}" name="Remark" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{7B824432-2833-4C84-AFBE-1AA4471D453F}" name="列1" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{1153225B-5CF1-4647-99BE-9AB3B9AE5BCD}" name="列2" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="folder" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="bu" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="po" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="lot" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="esd" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="lsd" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="vendor" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="so_number" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="pol" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="pod" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="status" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="criteria" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="fwd_feedback" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{D3FCCBD5-6D87-443E-A8EF-0EF862919B31}" name="Remark" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{7B824432-2833-4C84-AFBE-1AA4471D453F}" name="列1" dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{1153225B-5CF1-4647-99BE-9AB3B9AE5BCD}" name="列2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:O2" insertRow="1" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:O2" insertRow="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="folder" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="bu" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="po" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="lot" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="esd" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="lsd" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="vendor" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="so_number" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="pol" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="pod" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="status" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="criteria" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="fwd_feedback" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{69A964DF-7946-491F-A3C9-3971DFCDA2ED}" name="列1" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{E530C425-7ADE-40E9-BA53-BDCBF559B9A5}" name="列2" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="folder" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="bu" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="po" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="lot" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="esd" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="lsd" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="vendor" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="so_number" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="pol" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="pod" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="status" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="criteria" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="fwd_feedback" dataDxfId="24"/>
+    <tableColumn id="14" xr3:uid="{69A964DF-7946-491F-A3C9-3971DFCDA2ED}" name="Remark" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{E530C425-7ADE-40E9-BA53-BDCBF559B9A5}" name="列2" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A1:O2" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A1:O2" insertRow="1" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="folder" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="bu" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="po" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="lot" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="esd" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="lsd" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="vendor" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="so_number" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="pol" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="pod" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="status" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="criteria" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="fwd_feedback" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{F06942E4-84CA-479D-A8C5-9EA132C3AA81}" name="列1" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{0FAFF703-2744-4001-8B25-1CA7B683E345}" name="列2" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="folder" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="bu" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="po" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="lot" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="esd" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="lsd" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="vendor" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="so_number" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="pol" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="pod" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="status" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="criteria" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="fwd_feedback" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{F06942E4-84CA-479D-A8C5-9EA132C3AA81}" name="Remark" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{0FAFF703-2744-4001-8B25-1CA7B683E345}" name="列2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A1:C45" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A1:C45" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C45" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="State" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Comment" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="State" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Comment" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2308,7 +2308,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -2597,7 +2597,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2648,7 +2648,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>93</v>
@@ -2688,8 +2688,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2739,7 +2739,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>93</v>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyscript\SNT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B75FB-655D-45F6-852E-1BF2E5B25ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68575EB6-041B-4906-B881-2D0BA623C3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CREATED" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="98">
   <si>
     <t>folder</t>
   </si>
@@ -321,6 +321,51 @@
   </si>
   <si>
     <t>列2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +376,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +396,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,15 +432,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="95">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1884,135 +1977,137 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="folder" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="bu" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="po" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="lot" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="esd" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="lsd" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="vendor" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="so_number" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="pol" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="pod" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="status" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="criteria" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="fwd_feedback" dataDxfId="78"/>
-    <tableColumn id="14" xr3:uid="{6EA4150F-494D-4452-8391-0C4367B37165}" name="Remark" dataDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{3E734F1F-97FF-4C2E-B262-6AE483E3A4CA}" name="列1" dataDxfId="76"/>
-    <tableColumn id="16" xr3:uid="{0ACE6FC9-8685-4E37-933F-722A75843E6F}" name="列2" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="folder" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="bu" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="po" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="lot" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="esd" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="lsd" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="vendor" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="so_number" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="pol" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="pod" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="status" dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="criteria" dataDxfId="81"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="fwd_feedback" dataDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{6EA4150F-494D-4452-8391-0C4367B37165}" name="Remark" dataDxfId="79"/>
+    <tableColumn id="15" xr3:uid="{3E734F1F-97FF-4C2E-B262-6AE483E3A4CA}" name="列1" dataDxfId="78"/>
+    <tableColumn id="16" xr3:uid="{0ACE6FC9-8685-4E37-933F-722A75843E6F}" name="列2" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="folder" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="bu" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="po" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="lot" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="esd" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="lsd" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="vendor" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="so_number" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="pol" dataDxfId="64"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="pod" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="status" dataDxfId="62"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="criteria" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="fwd_feedback" dataDxfId="60"/>
-    <tableColumn id="14" xr3:uid="{E34B0057-EF11-49A8-B0DD-66D32F1057A5}" name="Remark" dataDxfId="59"/>
-    <tableColumn id="15" xr3:uid="{67835B67-A5DA-4888-B002-3042E6687217}" name="列1" dataDxfId="58"/>
-    <tableColumn id="16" xr3:uid="{A9A48327-5828-4587-AEE3-6D800FA84CCB}" name="列2" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="folder" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="bu" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="po" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="lot" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="esd" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="lsd" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="vendor" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="so_number" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="pol" dataDxfId="66"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="pod" dataDxfId="65"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="status" dataDxfId="64"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="criteria" dataDxfId="63"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="fwd_feedback" dataDxfId="62"/>
+    <tableColumn id="14" xr3:uid="{E34B0057-EF11-49A8-B0DD-66D32F1057A5}" name="Remark" dataDxfId="61"/>
+    <tableColumn id="15" xr3:uid="{67835B67-A5DA-4888-B002-3042E6687217}" name="列1" dataDxfId="60"/>
+    <tableColumn id="16" xr3:uid="{A9A48327-5828-4587-AEE3-6D800FA84CCB}" name="列2" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="folder" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="bu" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="po" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="lot" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="esd" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="lsd" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="vendor" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="so_number" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="pol" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="pod" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="status" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="criteria" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="fwd_feedback" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{D3FCCBD5-6D87-443E-A8EF-0EF862919B31}" name="Remark" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{7B824432-2833-4C84-AFBE-1AA4471D453F}" name="列1" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{1153225B-5CF1-4647-99BE-9AB3B9AE5BCD}" name="列2" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="folder" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="bu" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="po" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="lot" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="esd" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="lsd" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="vendor" dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="so_number" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="pol" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="pod" dataDxfId="47"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="status" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="criteria" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="fwd_feedback" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{D3FCCBD5-6D87-443E-A8EF-0EF862919B31}" name="Remark" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{7B824432-2833-4C84-AFBE-1AA4471D453F}" name="列1" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{1153225B-5CF1-4647-99BE-9AB3B9AE5BCD}" name="列2" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:O2" insertRow="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="folder" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="bu" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="po" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="lot" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="esd" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="lsd" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="vendor" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="so_number" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="pol" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="pod" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="status" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="criteria" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="fwd_feedback" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{69A964DF-7946-491F-A3C9-3971DFCDA2ED}" name="Remark" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{E530C425-7ADE-40E9-BA53-BDCBF559B9A5}" name="列2" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="folder" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="bu" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="po" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="lot" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="esd" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="lsd" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="vendor" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="so_number" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="pol" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="pod" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="status" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="criteria" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="fwd_feedback" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{69A964DF-7946-491F-A3C9-3971DFCDA2ED}" name="Remark" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{E530C425-7ADE-40E9-BA53-BDCBF559B9A5}" name="列1" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{A9106EEB-AC5E-4FCF-8EC8-4B7DEF81B869}" name="列2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A1:O2" insertRow="1" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="folder" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="bu" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="po" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="lot" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="esd" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="lsd" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="vendor" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="so_number" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="pol" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="pod" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="status" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="criteria" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="fwd_feedback" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{F06942E4-84CA-479D-A8C5-9EA132C3AA81}" name="Remark" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{0FAFF703-2744-4001-8B25-1CA7B683E345}" name="列2" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:P2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="folder" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="bu" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="po" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="lot" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="esd" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="lsd" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="vendor" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="so_number" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="pol" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="pod" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="status" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="criteria" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="fwd_feedback" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{F06942E4-84CA-479D-A8C5-9EA132C3AA81}" name="Remark" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{0FAFF703-2744-4001-8B25-1CA7B683E345}" name="列1" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{DA32A962-089F-463D-A3D1-F0BC9E33FC9A}" name="列2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A1:C45" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A1:C45" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:C45" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="State" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Comment" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="State" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Comment" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2308,8 +2403,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2594,10 +2689,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="O1" sqref="O1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2607,7 +2702,7 @@
     <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2650,11 +2745,14 @@
       <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
@@ -2686,10 +2784,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2698,7 +2796,7 @@
     <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2741,11 +2839,14 @@
       <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyscript\SNT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FF468A-8F8B-4021-AC25-D10C3320E3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E02C025-53FF-484C-A036-036FAAA75DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,12 @@
     <sheet name="Allowed Comments" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="105">
   <si>
     <t>State</t>
   </si>
@@ -303,63 +304,43 @@
     <t>Remark</t>
   </si>
   <si>
+    <t>VendorContact</t>
+  </si>
+  <si>
+    <t>BookingRequestDate</t>
+  </si>
+  <si>
+    <t>BookingConfirmDate</t>
+  </si>
+  <si>
+    <t>ASNDate</t>
+  </si>
+  <si>
+    <t>SHIPPING MODE</t>
+  </si>
+  <si>
+    <t>shipment number</t>
+  </si>
+  <si>
+    <t>ETD</t>
+  </si>
+  <si>
+    <t>ETA</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>ATD</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
     <t>列1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-      </rPr>
-      <t>列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>列2</t>
-  </si>
-  <si>
-    <t>VendorContact</t>
-  </si>
-  <si>
-    <t>BookingRequestDate</t>
-  </si>
-  <si>
-    <t>BookingConfirmDate</t>
-  </si>
-  <si>
-    <t>ASNDate</t>
   </si>
 </sst>
 </file>
@@ -369,7 +350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,25 +362,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <family val="2"/>
     </font>
     <font>
@@ -442,68 +404,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -517,9 +430,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:T2" totalsRowShown="0">
-  <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AA2" totalsRowShown="0">
+  <autoFilter ref="A1:AA2" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="folder"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="bu"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="po"/>
@@ -537,18 +450,25 @@
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="VendorContact"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="BookingRequestDate"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="BookingConfirmDate"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ASNDate"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="列1"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="列2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ASNDate1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="SHIPPING MODE"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="shipment number"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="ETD"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="ETA"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="SO"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="ATD"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Container1"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="列1"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="列2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:T2" totalsRowShown="0">
-  <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:AA2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:AA2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="folder"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="bu"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="po"/>
@@ -563,21 +483,28 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="criteria"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="fwd_feedback"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Remark"/>
-    <tableColumn id="17" xr3:uid="{FB66B557-9C4F-4ACE-B187-31FB9B39E954}" name="VendorContact" dataDxfId="15"/>
-    <tableColumn id="20" xr3:uid="{4E6F0245-B59B-4E91-B358-5DB39BB7E05D}" name="BookingRequestDate" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{101AD0E8-787B-4DEB-B995-0B734775F2AB}" name="BookingConfirmDate" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{60DA3CAD-7992-4C29-A99B-98072D1C6E8A}" name="ASNDate" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="列1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="列2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="VendorContact"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="BookingRequestDate"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="BookingConfirmDate"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="ASNDate"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="SHIPPING MODE"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="shipment number"/>
+    <tableColumn id="21" xr3:uid="{B2808874-A2FB-40E8-B909-8ECAA6652103}" name="ETD"/>
+    <tableColumn id="22" xr3:uid="{ACB23A49-4138-4A08-A0FD-F666876FD4E5}" name="ETA"/>
+    <tableColumn id="23" xr3:uid="{6BAB97B6-9C21-4FB8-ADEB-AE6E527C6E7D}" name="SO"/>
+    <tableColumn id="24" xr3:uid="{57EC7386-92DE-411E-B724-71AABC4C8D19}" name="ATD"/>
+    <tableColumn id="25" xr3:uid="{726CDD39-8DE7-4166-BE3B-8CB79A8CFA68}" name="Container"/>
+    <tableColumn id="26" xr3:uid="{1E731045-EF44-4088-B748-6435CAB963BF}" name="列1"/>
+    <tableColumn id="27" xr3:uid="{F78AC307-AB72-40B0-B2B5-0F6DC56F0B14}" name="列2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:T2" totalsRowShown="0">
-  <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:AA2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:AA2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="folder"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="bu"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="po"/>
@@ -592,21 +519,28 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="criteria"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="fwd_feedback"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Remark"/>
-    <tableColumn id="17" xr3:uid="{09698A08-D1D4-403B-B514-AD443BDC4476}" name="VendorContact" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{CAC52112-E9AB-40FD-ACB6-26D5C0487991}" name="BookingRequestDate" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{36CD8334-373A-45B7-8EE2-70A666C62FB9}" name="BookingConfirmDate" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{F47E84A6-A2ED-4F06-B2AA-B91FD08F23B2}" name="ASNDate" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="列1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="列2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="VendorContact"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="BookingRequestDate"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="BookingConfirmDate"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="ASNDate"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="SHIPPING MODE"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0200-000014000000}" name="shipment number"/>
+    <tableColumn id="21" xr3:uid="{6711BBF8-FF1E-4CF5-ABC7-9377E5FAD6D2}" name="ETD"/>
+    <tableColumn id="22" xr3:uid="{68F46B93-F6F0-4F47-8FCD-AF8D7013A935}" name="ETA"/>
+    <tableColumn id="23" xr3:uid="{41B6B9B7-E8B7-41CF-BBB4-AF1FE9D713B4}" name="SO"/>
+    <tableColumn id="24" xr3:uid="{19A02272-DC43-49A4-9073-65103913BF01}" name="ATD"/>
+    <tableColumn id="25" xr3:uid="{2B114F4B-EFC6-42CC-9CCD-3193568F4BBD}" name="Container"/>
+    <tableColumn id="26" xr3:uid="{71C80CEC-3D0F-45D2-8F88-DEB9B667BC5E}" name="列1"/>
+    <tableColumn id="27" xr3:uid="{E3CE3014-BF3B-4927-8777-0B88E295316F}" name="列2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:T2" totalsRowShown="0">
-  <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A1:AA2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:AA2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="folder"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="bu"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="po"/>
@@ -621,21 +555,28 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="criteria"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="fwd_feedback"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Remark"/>
-    <tableColumn id="17" xr3:uid="{4B3E6BE1-FC52-4149-906E-B28AE18F0E69}" name="VendorContact" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{64A3E419-ABC2-4143-A6E4-524614C49AFB}" name="BookingRequestDate" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{3231C71F-56DF-4173-8114-E811F75CA4F5}" name="BookingConfirmDate" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{1D77F373-83D0-4CE3-BC62-4CDEDE6F1B4F}" name="ASNDate" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="列1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="列2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="VendorContact"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="BookingRequestDate"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="BookingConfirmDate"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="ASNDate"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="SHIPPING MODE"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="shipment number"/>
+    <tableColumn id="21" xr3:uid="{A6540410-D56E-4AFB-84F9-97D91765A0F7}" name="ETD"/>
+    <tableColumn id="22" xr3:uid="{3B3A0BFD-D42F-4B23-829D-2F7292182534}" name="ETA"/>
+    <tableColumn id="23" xr3:uid="{8CE08F01-BFBA-4F24-9748-812E7AB88FC5}" name="SO"/>
+    <tableColumn id="24" xr3:uid="{FBF9A614-F83E-4374-AAF8-82B5ED200CE8}" name="ATD"/>
+    <tableColumn id="25" xr3:uid="{9E9A1B96-734D-4D24-9A4D-2DC994FCE221}" name="Container"/>
+    <tableColumn id="26" xr3:uid="{3DDE2934-131C-42DE-8581-035C6C956912}" name="列1"/>
+    <tableColumn id="27" xr3:uid="{4E492EC1-A40D-431C-B23C-B9A446E0C296}" name="列2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A1:T2" totalsRowShown="0">
-  <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A1:AA2" totalsRowShown="0">
+  <autoFilter ref="A1:AA2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="folder"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="bu"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="po"/>
@@ -650,12 +591,19 @@
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="criteria"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="fwd_feedback"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="Remark"/>
-    <tableColumn id="20" xr3:uid="{B9BB4A5D-11C3-472A-B78D-A31FE9F63960}" name="VendorContact" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{C1654B16-5D36-469C-823B-574FB0400745}" name="BookingRequestDate" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{D33F11BF-3178-40EA-B21F-4BB2E9156497}" name="BookingConfirmDate" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{BBEFFFB9-B191-4DB4-8A6B-FC3070487517}" name="ASNDate" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="列1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="列2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="VendorContact"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="BookingRequestDate"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="BookingConfirmDate"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="ASNDate"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="SHIPPING MODE"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0400-000014000000}" name="shipment number"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0400-000015000000}" name="ETD"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0400-000016000000}" name="ETA"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0400-000017000000}" name="SO"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0400-000018000000}" name="ATD"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0400-000019000000}" name="Container"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0400-00001A000000}" name="列1"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0400-00001B000000}" name="列2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -961,24 +909,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R1"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="13.54296875" style="2" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="13.54296875" style="5" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -1022,51 +971,80 @@
         <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="W1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1076,19 +1054,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -1132,48 +1112,69 @@
         <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="W1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1186,21 +1187,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -1244,48 +1247,69 @@
         <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="W1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1298,20 +1322,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:R1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -1355,48 +1381,69 @@
         <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="W1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1409,19 +1456,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="20.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="24" width="7.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -1465,48 +1516,76 @@
         <v>91</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="W1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2035,7 +2114,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
